--- a/CSS -ME.xlsx
+++ b/CSS -ME.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D400FE94-A7CE-4099-A48E-999E3C09F7FF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3DF476-9442-4FD5-A029-09968FBAEAEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
   <si>
     <r>
       <t xml:space="preserve">&lt;link </t>
@@ -178,9 +178,6 @@
     <t>في حال انو كود الستايل اريد اكتبه بفايل الهتمل نفسه ... اكتب هذا الكود واحط كود الستايل بداخله</t>
   </si>
   <si>
-    <t>هاي السمه احدد بيها حجم الخط</t>
-  </si>
-  <si>
     <t>هاي طريقة يسموها  inline style ... انو تكتب الستايل مال الشغله بداخل كودها نفسه</t>
   </si>
   <si>
@@ -1036,13 +1033,2594 @@
       </rPr>
       <t>%</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200px</t>
+    </r>
+  </si>
+  <si>
+    <t>/*      */</t>
+  </si>
+  <si>
+    <t>هذا كود الملاحظات او التعليقات داخل فليل الcss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>direction</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ltr</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي السمه نحدد بيها اتجاه النص او العنصر من اليسار لليمين وذا rtl يعني من اليمين لليسار</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>letter-spacing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5px</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي السمه تحدد المسافه الفاصله اللي بين العناصر</t>
+  </si>
+  <si>
+    <t>هاي السمه تسوي بيها عرض العنصر وليس عرض النص</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20px</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي السمه تحدد شكد الdiv يكون اكبر من المحتوى الداخلي .. مثل اطار داخلي للdiv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line-height</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120%</t>
+    </r>
+  </si>
+  <si>
+    <t>تحدد المساافه بين الاسطر للنص الواحد ...120 بالميه يعني بعدت اكثر بشويه من المسافه الاصليه</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-align</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>center</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تحدد موقع النص بالصفحه ... واعتقد الالاين وحدها تحدد موقع العنصر كله بالصفحه</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-decoration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>underline</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تحط خط جوه الكلام ... الرابط يكون الافتراضي مالته underlin ونكدر نشيله بالسمه التاليه</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-decoration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تشيل الخط من جوه الكلام ... نستخدمها اذا نريد نشيل الخط من جوه اللينك مثلا</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hover</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>هكذا نستدعي الclass اللي انشأناه من الدف لـفايل الcss او للكود مال الstyle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>className</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-decoration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overline</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تحط خط فوك الكلام</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-decoration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line-through</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>className</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <t>هكذا نستدعي الclass اللي انشأناه من السبان لـفايل الcss او للكود مال الstyle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-indent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تخلي السطر الاول مال الكلام يبدي بفراغ ... تفيد بالنصوص الباراغرافات</t>
+  </si>
+  <si>
+    <t>هاي تخلي خط بنص الكلام يعني بنص الحروف مثل شاطب على الكلام</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uppercase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capitalize</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تخلي الكتابه والتيكست كله بالاحرف الكبيره</t>
+  </si>
+  <si>
+    <t>هاي تخلي كل الكلمات بالتيكست تبدي بحروف جبيره</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lowercase</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تخلي الكتابه والتيكست كله بالاحرف الصغيره</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>word-spacing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+  </si>
+  <si>
+    <t>تحدد المسافه بين الكلمات في النص الواحد</t>
+  </si>
+  <si>
+    <t>letter-spacing:normal         word-spacing:10px</t>
+  </si>
+  <si>
+    <t>هذا المسافه الافتراضيه العاديه للكودين اعلاه</t>
+  </si>
+  <si>
+    <t>تحدد المسافه بين الحروف في الكلمه الواحده بالنصوص  ...
+ ممكن تكون القيمه بالسالب فيقرب الحروف على بعض</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-family</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arial</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي السمه تحددلك نوع الخط في حال جان اسم الخط يتكون من كلمه وحده</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-family</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time New Roman</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تحددلك نوع الخط بس اذا الخط اكثر من كلمه لازم تحطه بين كوتيشنس</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-style</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>italic</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تخلي الخط يكون مائل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هاي السمه احدد بيها حجم الخط  ::: الافتراضي مالته 16px </t>
+  </si>
+  <si>
+    <t>هذا السينتاكس في حالة انو نريد فد سمه تصير عالعنصر لمن نحط المؤشر عليه
+مثلا كتبنا رابط وماكو جواه خط .. نسوي هاي الفيكه حتى من نخلي المؤشر عالرابط يصير جواه خط
+وهذا الكود او الحركه تتطبق على كل العناصر مو بس اللينك</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>active</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>هذا السينتاكس في حاله نريد انو من ندوس كلك على العنصر تتفعل بيه سمه معينه احنه حطيناها
+كول ما احنه نظل دايسين على الكلك تبقى هاي السمه مفعله لحد منشيل ايدنا
+تصير على كل العناصل مو بس اللينك</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-weight</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bold</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي حته تثخن الخط</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list-style-type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disc</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي السمه والقيمه الافتراضيه مال اللستات الغير منظمه ul اللي هي شكلها طوبات
+بقية الاشكال بس تكتب السمه list-style-type تطلعلك قيم مختلفه كل اسم ينطيك شكل معين</t>
+  </si>
+  <si>
+    <t>هاي تشيل الاشكال مال اللسته بحيث تطلعلك لسته بدون لا ارقام ولا احرف ولا اشكال</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list-style-type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list-style-position</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">inside
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list-style-position</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:outside</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تخلي النقاط او الاشكال مال اللسته داخله مع اللسته بالتاثيرات المطبقه على اللسته
+يعني لو سوينه اطار لكل حقل للسته , النقاط او الاشكال راح تدخل داخل الاطار .. الoutside هي الافتراضيه</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list-style-image</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url('me_list.png')</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي في حال ردنا انو اشارات اللسته تكون عباره عن صور احنه نحطها  باختيارنه</t>
+  </si>
+  <si>
+    <t>لننسا موضوع مكان الصوره لازم يكون بجانب فايل الcss واذا جوه فولدر نظيف اسمه folder/me_list.png</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>كل عنصر تحطه بالصفحه هو عباره عن box  يعني ينحط داخل بوكس وطبعا الdiv هو ايضا بوكس
+فلما تريد تسوي حركات مل عنصر بداخل عنصر يعني بوكس داخل بوكس تستخدم ال div</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2px</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تنسيقات الاطارات بسطر واحد</t>
+  </si>
+  <si>
+    <r>
+      <t>solid kan be also (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dotted, dashed, ridge, double,groove, hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي انواع الاطارات امبينه من اساميهن ..
+ الhidden يفيد بموضوع hover تسويه مخفي ومن تحط الماوس عالعنصر يطلع الاطار</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border kan be also
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border-top:  border-bottom:   border-left:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   …..and so on</t>
+    </r>
+  </si>
+  <si>
+    <t>هنا احدد جهة الاطار ... طبعا الافتراضي يكون من كل الجهاتززز اما البقيه امبينات من اساميهن</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border-width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2px</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4px 2px 4px</t>
+    </r>
+  </si>
+  <si>
+    <t>ها لمن تحدد عرض الاطار على حده ...
+ اول قيمه تمثل الاطار من فوك .. الثانيه من اليمين .. الثالثه الجوه. الرابعه من اليسار</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border-style</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dotted dashed none</t>
+    </r>
+  </si>
+  <si>
+    <t>الستايل مال الاطار هم تكدر تحدده من كل جهع على حده بهذا الكود .. بالتسلسل فوق يمين تحت يسار
+الnone يعني ماكو اطار من جهة اليسار</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px 20px 10px 20px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin-left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">30px       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            -right        -top         -bottom</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تمثل المسافه بين العنصر و حواف الصفحه او المسافه بين العنصر والعناصر المجاوره</t>
+  </si>
+  <si>
+    <t>هاي في حالة انو تريد تخلي هاي المسافه مختلفه ما بين الجهات-- بالتسلسل فوق يمين تحت يسار</t>
+  </si>
+  <si>
+    <t>هاي في حالة انو تريد تخلي المسافه من جهه وحده بس -- تحددها بهاي الطريقه</t>
+  </si>
+  <si>
+    <t>هاي معناه توسط العنصر بنص الصفحه لانو الموقع هو راح يحسب نفس المسافه من على يمين ويسار العنصر</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px 20px 10px 20px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding-left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">30px       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            -right        -top         -bottom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي تمثل الاطار الداخلي للعنصر ويكون تابع للعنصر وداخل ضمن التاثيرات التي تطرأ على العنصر</t>
+  </si>
+  <si>
+    <t>هاي نحدد بيها عرض العنصر بالصفحه بما فيهم ال div</t>
+  </si>
+  <si>
+    <t>هاي نحدد بيها اقصى عرض ممكن يوصله العنصر وميعبره ... حته لو زودنا الكلام او الصور او اي شغله بداخله</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-height</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-height</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10px</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي نحدد بيها ارتفاع العنصر بالصفحه بما فيهم ال div</t>
+  </si>
+  <si>
+    <t>هاي نحدد بيها اقصى ارتفاع ممكن يوصله العنصر وميعبره ... حته لو زودنا الكلام او الصور او اي شغله بداخله</t>
+  </si>
+  <si>
+    <t>هاي نحدد بيها ادنى ارتفاع ممكن يوصله العنصر وميعبره .. حته لو ققلنا الكلام او حجم الصوره او اي شغه</t>
+  </si>
+  <si>
+    <t>هاي نحدد بيها ادنى عرض ممكن يوصله العنصر وميعبره .. حته لو ققلنا الكلام او حجم الصوره او اي شغه</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي حته تخلي ارتفاع العنصر ياخذ ارتفاع العنصر الاب كله .. بغض النظر عن حجم محتوى هذا العنصر
+وطبعا ممكن تلعب بالقيمه حسب الرغبه  مثلا 80%   %75        %20
+وهاي الخاصيه ممكن تطبقها على الwidth هماتين</t>
+  </si>
+  <si>
+    <t>هذا بالنسبه للعناصر اللي تنكتب على سطر واحد يخليها تنزل عالسطر التالي 
+مثل الصور افتراضيا تنزل بنفس السطر ... فتسويلها هيج حته تنزل بسطر جديد
+هذا السنتاكس لازم ينكتب بفايل ال css او بقسم الstyle</t>
+  </si>
+  <si>
+    <t>هذا عكس الفوكاه --البلوك -- اذا هو عنصر افتراضيا ينزل سطر جديد يخليه يبقه بنفس السطر</t>
+  </si>
+  <si>
+    <t>هذا يخلي العنصر غير ظاهر بالصفحه -- يفيد بحركات البرمجه بعددين - مثلا من تسوي دكمه اذا تنداس يظهر</t>
+  </si>
+  <si>
+    <t>حسب ما افتهمت هذا يخلي العنصر يبقه بنفس الخط بس بعده يصير بلوك ..
+ الا اذا العنصر العنصر اللي بعده هم سويتله انلاين</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inline</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inline-block</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي حته تخلي مكان العنصر ثابت بالصفحه كلما تسوي سكرول داون او اب يبقه العنصر وياك يصعد وينزل</t>
+  </si>
+  <si>
+    <t>هذني السمات بالعاده ينكتبن بعد البوزشن حتى نحدد موقع العنصر او مكانه داخل الصفحه
+نزيحه التوب تحسبلك من قمة الصفحه هلكد بكسل وتحط العنصر .. الرايت من الحافه اليمين مال الصفحه
+والليفت من الحافه اليسار مال الصفحه</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relative</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <t>هذا عباره ازاحه للعنصر تزيحه يمين يسار فوك جوه وهكذا ... الفرق بينه وبين الfixed هو التالي
+هنا اولا ميتحرك يصعد وينزل ويه الصفحه ... واذا انزاح لمسافه ابعد من اطراف الفحه يروح الجزء الزايد بال hidden
+والمكان مالته اللي بقه فارغ بعد ما زحناه يبقه محجوز اله منكدر نحط بيه غير عنصر
+ملاحظه, , الريلاتف يصير كونتينر اب وميخلي محتوايته تطلع خارجه حتى لو سوينا لمحتوياته absolute</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>absolute</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي عادة تستخدم مع relative يحط مكان العنصر حسب العنصر الاب واذا ما لكه عنصر اب
+يعتبر الصفحه الاساسيه كلها هي الاب ... وايضا يستخدم top ,, left ,, bottom ,, right كأبعاد للمكان</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,6 +3733,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1176,7 +3786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1210,21 +3820,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1237,41 +3900,134 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1554,279 +4310,934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140:B141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="78.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="63.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="80.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="48"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="44"/>
+    </row>
+    <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
+      <c r="B46" s="46"/>
+    </row>
+    <row r="47" spans="1:2" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="6" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="34"/>
+    </row>
+    <row r="52" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="32"/>
+      <c r="B53" s="35"/>
+    </row>
+    <row r="54" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="B54" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="41"/>
+      <c r="B59" s="35"/>
+    </row>
+    <row r="60" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="B60" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
+    <row r="61" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="32"/>
+      <c r="B61" s="35"/>
+    </row>
+    <row r="62" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="32"/>
+      <c r="B64" s="34"/>
+    </row>
+    <row r="65" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="32"/>
+      <c r="B65" s="34"/>
+    </row>
+    <row r="66" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="35"/>
+    </row>
+    <row r="68" spans="1:2" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32"/>
+      <c r="B68" s="35"/>
+    </row>
+    <row r="69" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+    </row>
+    <row r="74" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="32"/>
+      <c r="B80" s="35"/>
+    </row>
+    <row r="81" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="32"/>
+      <c r="B82" s="35"/>
+    </row>
+    <row r="83" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="35"/>
+    </row>
+    <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="32"/>
+      <c r="B86" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="40"/>
+      <c r="B89" s="38"/>
+    </row>
+    <row r="90" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="32"/>
+      <c r="B93" s="35"/>
+    </row>
+    <row r="94" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="32"/>
+      <c r="B95" s="35"/>
+    </row>
+    <row r="96" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="32"/>
+      <c r="B97" s="35"/>
+    </row>
+    <row r="98" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="32"/>
+      <c r="B99" s="35"/>
+    </row>
+    <row r="100" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+    </row>
+    <row r="101" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+    </row>
+    <row r="102" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="29"/>
+      <c r="B110" s="30"/>
+    </row>
+    <row r="111" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="32"/>
+      <c r="B119" s="34"/>
+    </row>
+    <row r="120" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="32"/>
+      <c r="B120" s="34"/>
+    </row>
+    <row r="121" spans="1:2" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="32"/>
+      <c r="B123" s="35"/>
+    </row>
+    <row r="124" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="32"/>
+      <c r="B124" s="35"/>
+    </row>
+    <row r="125" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="41"/>
+      <c r="B128" s="35"/>
+    </row>
+    <row r="129" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="35"/>
+    </row>
+    <row r="133" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="35"/>
+    </row>
+    <row r="134" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B135" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="32"/>
+      <c r="B136" s="34"/>
+    </row>
+    <row r="137" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="32"/>
+      <c r="B137" s="34"/>
+    </row>
+    <row r="138" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="32"/>
+      <c r="B138" s="34"/>
+    </row>
+    <row r="139" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="34"/>
+    </row>
+    <row r="140" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="32"/>
+      <c r="B141" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
+  <mergeCells count="50">
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B131:B133"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B88:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CSS -ME.xlsx
+++ b/CSS -ME.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3DF476-9442-4FD5-A029-09968FBAEAEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E432833-8423-4835-B236-443C938F7335}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <r>
       <t xml:space="preserve">&lt;link </t>
@@ -3614,6 +3614,240 @@
   <si>
     <t>هاي عادة تستخدم مع relative يحط مكان العنصر حسب العنصر الاب واذا ما لكه عنصر اب
 يعتبر الصفحه الاساسيه كلها هي الاب ... وايضا يستخدم top ,, left ,, bottom ,, right كأبعاد للمكان</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">القيمه الافتراضيه للفلوت </t>
+  </si>
+  <si>
+    <t>هاي تصفط العناصر من جهة اليسار ... مزيتها انو اذا شلت عنصر مكانه ميبقه فارغ .. الجان وراه يجي بمكانه</t>
+  </si>
+  <si>
+    <t>هاي نفس الشي بس من اليمين</t>
+  </si>
+  <si>
+    <t>ميزة الفلوت انو تكدر تحط بنفس السطر عناصر من اليمين وعناصر من اليسار بدون متنزل سطر</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>right</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي عكس الفلوت تشيل تاثير الفلوت و البوث معناها تشيل تاثيره من جانبين\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشيل تاثير الفلوت من اليسار </t>
+  </si>
+  <si>
+    <t>تشيل تاثير الفلوت من اليمين</t>
+  </si>
+  <si>
+    <t>بالعاده تنحط بdiv وحدها بين الدفات اللي مسويلهن float حته تفصل بينهم</t>
   </si>
 </sst>
 </file>
@@ -3886,7 +4120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3983,7 +4217,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3992,22 +4226,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4024,10 +4252,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4310,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140:B141"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4338,7 +4578,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -4346,19 +4586,19 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4425,16 +4665,16 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="38" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -4561,16 +4801,16 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="42"/>
     </row>
     <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -4625,16 +4865,16 @@
       <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
@@ -4656,7 +4896,7 @@
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="34" t="s">
@@ -4664,11 +4904,11 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="34"/>
     </row>
     <row r="52" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="35" t="s">
@@ -4676,7 +4916,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="35"/>
     </row>
     <row r="54" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4705,7 +4945,7 @@
     </row>
     <row r="57" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="34" t="s">
@@ -4713,11 +4953,11 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="35"/>
     </row>
     <row r="60" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="35" t="s">
@@ -4725,12 +4965,12 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="35"/>
     </row>
     <row r="62" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="34" t="s">
@@ -4738,15 +4978,15 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="34"/>
     </row>
     <row r="65" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="34"/>
     </row>
     <row r="66" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="33" t="s">
         <v>96</v>
       </c>
       <c r="B66" s="34" t="s">
@@ -4754,11 +4994,11 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="35"/>
     </row>
     <row r="68" spans="1:2" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="35"/>
     </row>
     <row r="69" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -4782,12 +5022,12 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
     </row>
     <row r="73" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
     </row>
     <row r="74" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -4823,7 +5063,7 @@
     </row>
     <row r="78" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B79" s="34" t="s">
@@ -4831,11 +5071,11 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="35"/>
     </row>
     <row r="81" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B81" s="35" t="s">
@@ -4843,11 +5083,11 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="35"/>
     </row>
     <row r="83" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="37" t="s">
         <v>104</v>
       </c>
       <c r="B83" s="34" t="s">
@@ -4855,11 +5095,11 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="35"/>
     </row>
     <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4867,23 +5107,23 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="48" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="40"/>
-      <c r="B89" s="38"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="49"/>
     </row>
     <row r="90" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4895,7 +5135,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B92" s="34" t="s">
@@ -4903,11 +5143,11 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="35"/>
     </row>
     <row r="94" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="37" t="s">
         <v>115</v>
       </c>
       <c r="B94" s="35" t="s">
@@ -4915,11 +5155,11 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="35"/>
     </row>
     <row r="96" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="33" t="s">
         <v>117</v>
       </c>
       <c r="B96" s="34" t="s">
@@ -4927,11 +5167,11 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="35"/>
     </row>
     <row r="98" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="33" t="s">
         <v>119</v>
       </c>
       <c r="B98" s="34" t="s">
@@ -4939,16 +5179,16 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="35"/>
     </row>
     <row r="100" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
     </row>
     <row r="101" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
     </row>
     <row r="102" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -5061,7 +5301,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B118" s="34" t="s">
@@ -5069,16 +5309,16 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
+      <c r="A119" s="33"/>
       <c r="B119" s="34"/>
     </row>
     <row r="120" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="34"/>
     </row>
     <row r="121" spans="1:2" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B122" s="34" t="s">
@@ -5086,11 +5326,11 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="35"/>
     </row>
     <row r="124" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="32"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="35"/>
     </row>
     <row r="125" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5110,7 +5350,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="36" t="s">
         <v>154</v>
       </c>
       <c r="B127" s="34" t="s">
@@ -5118,7 +5358,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="41"/>
+      <c r="A128" s="36"/>
       <c r="B128" s="35"/>
     </row>
     <row r="129" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5152,7 +5392,7 @@
     </row>
     <row r="134" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="32" t="s">
+      <c r="A135" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B135" s="34" t="s">
@@ -5160,22 +5400,22 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="32"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="34"/>
     </row>
     <row r="137" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="32"/>
+      <c r="A137" s="33"/>
       <c r="B137" s="34"/>
     </row>
     <row r="138" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="32"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="34"/>
     </row>
     <row r="140" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B140" s="34" t="s">
@@ -5183,20 +5423,95 @@
       </c>
     </row>
     <row r="141" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="34"/>
+    </row>
+    <row r="142" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="50" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B17:B18"/>
@@ -5213,31 +5528,15 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B131:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CSS -ME.xlsx
+++ b/CSS -ME.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E432833-8423-4835-B236-443C938F7335}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300644CE-9B3B-4918-B3CA-F1C534119D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="247">
   <si>
     <r>
       <t xml:space="preserve">&lt;link </t>
@@ -3849,12 +3849,1157 @@
   <si>
     <t>بالعاده تنحط بdiv وحدها بين الدفات اللي مسويلهن float حته تفصل بينهم</t>
   </si>
+  <si>
+    <t>grouping</t>
+  </si>
+  <si>
+    <t>هاي الطريقه مال تجميع الكلاسات نستخدمها للاختصار 
+اذا عدنا مجموعة كلاسات نريد نسويلهم نفس الخواص نجمعهم هيج ونفتحلهم اقواس سمات وحده لكلهم</t>
+  </si>
+  <si>
+    <t>Nesting</t>
+  </si>
+  <si>
+    <t>هاي في حال نريد نسوي ستايل لعنصر معين مثل الباراغراف داخل div او class هيج نكتب الـ selector</t>
+  </si>
+  <si>
+    <t>هاي في حالة نريد نسوي ستايل ل ثنين دفات او كلاسات فهيج نكتب السيلكتور ,, نفسها الكروبنغ</t>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {      }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Div1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Div2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DivName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DivNmae</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DivName2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>هيج نسوي كروبنغ ونيستنغ بنفس الوقت .. يعني مثلا عدنا ثنين باراغرافات بدفات مختلفه ونريد نسوي عليهم
+نفس الستايل فهيج نستدعيهم</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>هاي الخاصيه تستخدم عندما يكون محتوى العنصر اكبر من العنصر نفسه ... ف يبان المحتوى خارج حدود
+العنصر ... والفزبل هي القيمه الافتراضيه لهذه السمه</t>
+  </si>
+  <si>
+    <t>هاي تسوي سكرولات طوليه وعرضيه حتى نصعد وننزل ونشوف المحتوى كله</t>
+  </si>
+  <si>
+    <t>هاي تخفي المحتوى المتعدي حدود العنصر الام ... تستخدم ايضا لاظهار الdiv المختفى بسبب الfloat
+وذلك بتطبيقها على عناص ال  div نفسه</t>
+  </si>
+  <si>
+    <t>هاي احسن شي اذا المحتوى جبير تطلع سكرول بارات اوتوماتيكيا واذا المحتوى صغير متطلع</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>هاي الخاصيه نظهر بيها العناصر بالصفحه .. الفزبل هي القيمه الافتراضيه ومعناها اظهر ومنحتاجلها دائما</t>
+  </si>
+  <si>
+    <t>معناها تخفي العنصر بس تحجز مكانه بالصفحه ,, كانما موجود بالصفحه بس عيونه متشوفه
+وهاي الخاصيه عكس خاصية display:none هذيج تخفي العنصر هو مكنه بحيث العنصر التالي ياخذ مكانه</t>
+  </si>
+  <si>
+    <t>z-index</t>
+  </si>
+  <si>
+    <t>العنصر اللي ياخذ اعلى قيمة للاندكس هو اللي يظهر اولا وهكذا بقية العناصر تنازليا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هاي الخاصيه تستخدم حته نحدد يا عنصر يطلع اول عالشاشه ,,, الاوتو هي القيمه الافتراضيه 
+طبعا هاي الخاصيه تستخدم بالعاده مع خاصية الـ posotion لما نكون حطينا عناصر فوك بعض </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overflow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overflow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scroll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overflow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hidden</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overflow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visibility</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visibility</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hidden</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z-index</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         z-index</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:7</t>
+    </r>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>هاي الخاصيه تتلاعب بشكل المؤشر حسب الرغبه .... اكو عدة اشكال نكدر نجيبها من الانترنت</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cursor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pointer</t>
+    </r>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>هذا مثل البوردر بس الفرق هذا ماله علاقه بحجم العنصر ,, البوردر يعتبر من ظمن العنصر
+يعني اذا زودنا حجم البردر يعني السمك ف يزيد حجم العنصر كله ,,, بس بالاوت لاين الحجم معليه</t>
+  </si>
+  <si>
+    <t>Selector</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elemnt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elemnt</t>
+    </r>
+  </si>
+  <si>
+    <t>هاي شلون نستدعي فد سيلكتور علمود نطبق فد خواص على عنصر داخل السيلكتور</t>
+  </si>
+  <si>
+    <t>هاي والفوكاها نفس الشي بالcss</t>
+  </si>
+  <si>
+    <t>هاي في حال وجود عنصر داخل عنصر داخل عنصر مثل الجد والاب والابن فبهذا الكود
+ نستدعي العنصر الاب هيج ,,, ويسمى الـ direct child</t>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;div&gt;
+     &lt;div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>direct child</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+         &lt;div&gt;&lt;/div&gt;
+     &lt;/div&gt;
+&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elemnt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Container </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element</t>
+    </r>
+  </si>
+  <si>
+    <t>ممكن نستدعي عنصرين داخل بعض داخل كلاس عادي هيج</t>
+  </si>
+  <si>
+    <t>* {     }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النجمه معناها كلشي ,,, كلشي موجود بالصفحه </t>
+  </si>
+  <si>
+    <t>div + p {    }</t>
+  </si>
+  <si>
+    <t>هذا الاستدعاء معناته الخواص تتطبق على عنصر الباراغراف اللي بعد الdiv
+وهاي الدف والباراغراف ممكن تكون اي عناصر ثانيه ممكن جدول ممكن تيكست او عنصر اخر</t>
+  </si>
+  <si>
+    <t>div ~ p {    }</t>
+  </si>
+  <si>
+    <t>هذا الاستدعاء معناته كل عنصر من نوع بي يجي وره (بعده بالتاسلسل مال الاسطر)
+العنصر من نو دف بنفس الاب ياخذ الخواص اللي نحطها بين القوسين</t>
+  </si>
+  <si>
+    <t>Pseudo</t>
+  </si>
+  <si>
+    <t>هذا حتى تظيف تعديلات على اول حرف باول كلمه من الباراغراف  ,,, بدال منسويله span للحرف وحده</t>
+  </si>
+  <si>
+    <t>هذا حتى نسوي تعديلات على السطر الاول من الباراغراف</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>letter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   {  }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first-row</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> p:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first-child</t>
+    </r>
+  </si>
+  <si>
+    <t>هذا الاستدعاء معناته فوتلي على كل الدفات واختار اول باراغراف موجود داخل هاي الدفات</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> p:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first-child</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> span:first-child</t>
+    </r>
+  </si>
+  <si>
+    <t>هذا معناته روح على كل الدفات واخذ اول باراغراف داخل الدفات وبعدين اول سبان موجود بداخل هذا الباراغراف</t>
+  </si>
+  <si>
+    <t>div:after        {  }</t>
+  </si>
+  <si>
+    <t>div:before     {  }</t>
+  </si>
+  <si>
+    <t>هذا يتيحلنا انو نخلي فد محتوى قبل فد عنصر ,,, هذا المحتوى غير قابل للتضليل او النسخ او اي شي</t>
+  </si>
+  <si>
+    <t>هذا يتيحلنا انو نخلي فد محتوى بعد فد عنصر ,,, هذا المحتوى غير قابل للتضليل او النسخ او اي شي</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>هذا تاغ تخليه بداخل الكود مال ملف السي اس اس اللي حطيناه بالhead مال html
+واللي معناته انو التعديلات اللي طبقتها عالصفحه طلها راح تتطبق على شاشات الحاسوب واوراق الطباعه نفس الشي ,, يعني في حال سوينه برنت يطلع بنفس التنسيقات</t>
+  </si>
+  <si>
+    <t>media="screen"</t>
+  </si>
+  <si>
+    <t>media ="print"</t>
+  </si>
+  <si>
+    <t>هذا معناته الصفحه عالحاسوب تطلع بالتنسيقات المرغوبه ,,, وعلى ورقة الطباعه بدون تنسيقات</t>
+  </si>
+  <si>
+    <t>هذا معناته التنسيقات متطلع على شاشة الحاسوب ,,,  بس على ورقة الطباعه تطلع</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">media="all"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;link rel="stylesheet" href="myFile.css" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>media="screen"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3999,6 +5144,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4120,7 +5287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4216,8 +5383,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4226,24 +5435,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4252,22 +5449,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4550,10 +5753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4578,28 +5781,28 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
     </row>
     <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
     </row>
     <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
@@ -4665,16 +5868,16 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="58" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="59"/>
     </row>
     <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -4801,16 +6004,16 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="61" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="62"/>
     </row>
     <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -4865,16 +6068,16 @@
       <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="53" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="54"/>
     </row>
     <row r="47" spans="1:2" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
@@ -4896,28 +6099,28 @@
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="48"/>
     </row>
     <row r="52" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="49" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="33"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="49"/>
     </row>
     <row r="54" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
@@ -4945,61 +6148,61 @@
     </row>
     <row r="57" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="49"/>
     </row>
     <row r="60" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="49"/>
     </row>
     <row r="62" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="48" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="48"/>
     </row>
     <row r="65" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="48"/>
     </row>
     <row r="66" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="35"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="49"/>
     </row>
     <row r="68" spans="1:2" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
-      <c r="B68" s="35"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="49"/>
     </row>
     <row r="69" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
@@ -5063,43 +6266,43 @@
     </row>
     <row r="78" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="35"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="49"/>
     </row>
     <row r="81" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="49" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33"/>
-      <c r="B82" s="35"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="49"/>
     </row>
     <row r="83" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="48" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33"/>
-      <c r="B84" s="35"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="49"/>
     </row>
     <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="46" t="s">
         <v>106</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5107,23 +6310,23 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="46"/>
-      <c r="B89" s="49"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="52"/>
     </row>
     <row r="90" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5135,60 +6338,60 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="48" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
-      <c r="B93" s="35"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="49"/>
     </row>
     <row r="94" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
-      <c r="B95" s="35"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="49"/>
     </row>
     <row r="96" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="48" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
-      <c r="B97" s="35"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="49"/>
     </row>
     <row r="98" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="33"/>
-      <c r="B99" s="35"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="49"/>
     </row>
     <row r="100" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
     </row>
     <row r="101" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
     </row>
     <row r="102" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -5301,37 +6504,37 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="48" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="33"/>
-      <c r="B119" s="34"/>
+      <c r="A119" s="46"/>
+      <c r="B119" s="48"/>
     </row>
     <row r="120" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="33"/>
-      <c r="B120" s="34"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="48"/>
     </row>
     <row r="121" spans="1:2" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="48" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="33"/>
-      <c r="B123" s="35"/>
+      <c r="A123" s="46"/>
+      <c r="B123" s="49"/>
     </row>
     <row r="124" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="33"/>
-      <c r="B124" s="35"/>
+      <c r="A124" s="46"/>
+      <c r="B124" s="49"/>
     </row>
     <row r="125" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -5350,16 +6553,16 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="36" t="s">
+      <c r="A127" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="48" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="36"/>
-      <c r="B128" s="35"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="49"/>
     </row>
     <row r="129" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5374,7 +6577,7 @@
       <c r="A131" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="48" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5382,49 +6585,49 @@
       <c r="A132" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B132" s="35"/>
+      <c r="B132" s="49"/>
     </row>
     <row r="133" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B133" s="35"/>
+      <c r="B133" s="49"/>
     </row>
     <row r="134" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="48" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="33"/>
-      <c r="B136" s="34"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="48"/>
     </row>
     <row r="137" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="33"/>
-      <c r="B137" s="34"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="48"/>
     </row>
     <row r="138" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="33"/>
-      <c r="B138" s="34"/>
+      <c r="A138" s="46"/>
+      <c r="B138" s="48"/>
     </row>
     <row r="139" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="34"/>
+      <c r="B139" s="48"/>
     </row>
     <row r="140" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="33" t="s">
+      <c r="A140" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="48" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="33"/>
-      <c r="B141" s="34"/>
+      <c r="A141" s="46"/>
+      <c r="B141" s="48"/>
     </row>
     <row r="142" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5452,7 +6655,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="50" t="s">
+      <c r="B146" s="34" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5481,12 +6684,351 @@
       </c>
     </row>
     <row r="150" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="50" t="s">
+      <c r="B150" s="34" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B153" s="38"/>
+    </row>
+    <row r="154" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B154" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="38"/>
+    </row>
+    <row r="158" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B161" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="163" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="169" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B171" s="39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="173" spans="1:2" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B174" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="177" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="180" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B186" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B191" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B192" s="41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="194" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="203" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B204" s="44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="A100:B101"/>
     <mergeCell ref="A72:B73"/>
     <mergeCell ref="B118:B120"/>
@@ -5503,40 +7045,6 @@
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B131:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CSS -ME.xlsx
+++ b/CSS -ME.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300644CE-9B3B-4918-B3CA-F1C534119D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CA3997-3FB8-47D7-B22B-01832591602E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="315" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="290">
   <si>
     <r>
       <t xml:space="preserve">&lt;link </t>
@@ -3557,12 +3561,6 @@
     </r>
   </si>
   <si>
-    <t>هذا عباره ازاحه للعنصر تزيحه يمين يسار فوك جوه وهكذا ... الفرق بينه وبين الfixed هو التالي
-هنا اولا ميتحرك يصعد وينزل ويه الصفحه ... واذا انزاح لمسافه ابعد من اطراف الفحه يروح الجزء الزايد بال hidden
-والمكان مالته اللي بقه فارغ بعد ما زحناه يبقه محجوز اله منكدر نحط بيه غير عنصر
-ملاحظه, , الريلاتف يصير كونتينر اب وميخلي محتوايته تطلع خارجه حتى لو سوينا لمحتوياته absolute</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">element { </t>
     </r>
@@ -4993,13 +4991,148 @@
       </rPr>
       <t>/&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>هذا عباره ازاحه للعنصر تزيحه يمين يسار فوك جوه وهكذا ... الفرق بينه وبين الfixed هو التالي
+هنا اولا ميتحرك يصعد وينزل ويه الصفحه ... واذا انزاح لمسافه ابعد من اطراف الصفحه يروح الجزء الزايد بال hidden
+والمكان مالته اللي بقه فارغ بعد ما زحناه يبقه محجوز اله منكدر نحط بيه غير عنصر
+ملاحظه, , الريلاتف يصير كونتينر اب وميخلي محتوايته تطلع خارجه حتى لو سوينا لمحتوياته absolute</t>
+  </si>
+  <si>
+    <t>box-sizing: border-box;</t>
+  </si>
+  <si>
+    <t>هاي اخذتها بالتعليم الجديد تخلي الدفات اللي بداخل الدف الاب متطلع بره الدف الاب مهما لعبنه بيها من تغير</t>
+  </si>
+  <si>
+    <t>display:flex</t>
+  </si>
+  <si>
+    <t>display:inline-flex</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>flex-direction: row</t>
+  </si>
+  <si>
+    <t>flex-direction: row-reverse</t>
+  </si>
+  <si>
+    <t>flex-direction: column</t>
+  </si>
+  <si>
+    <t>flex-direction: column-reverse</t>
+  </si>
+  <si>
+    <t>flex-wrap: nowrap</t>
+  </si>
+  <si>
+    <t>flex-wrap: wrap</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>flex-wrap: wrap-reverse</t>
+  </si>
+  <si>
+    <t>not important</t>
+  </si>
+  <si>
+    <t>flex-flow: row wrap</t>
+  </si>
+  <si>
+    <t>short hand for the above codes</t>
+  </si>
+  <si>
+    <t>justify-content: flex-start</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>justify-content: flex-end</t>
+  </si>
+  <si>
+    <t>from the other side</t>
+  </si>
+  <si>
+    <t>justify-content: center</t>
+  </si>
+  <si>
+    <t>puts everything in the center of flex-box</t>
+  </si>
+  <si>
+    <t>justify-content: space-between</t>
+  </si>
+  <si>
+    <t>justify-content: space-around</t>
+  </si>
+  <si>
+    <t>makes the spacing from every side</t>
+  </si>
+  <si>
+    <t>display: grid;</t>
+  </si>
+  <si>
+    <t>display: inline-grid;</t>
+  </si>
+  <si>
+    <t>grid-template-columns: 1fr 2fr 1fr;</t>
+  </si>
+  <si>
+    <t>grid-template-columns: 200px 1fr;</t>
+  </si>
+  <si>
+    <t>grid-template-rows: 2fr repeat(3, 1fr) 2fr;</t>
+  </si>
+  <si>
+    <t>prof</t>
+  </si>
+  <si>
+    <t>grid-template-columns: 4em 50mm 1fr 15% 100px;</t>
+  </si>
+  <si>
+    <t>animation-delay: 4s</t>
+  </si>
+  <si>
+    <t>animation-direction: normal</t>
+  </si>
+  <si>
+    <t>animation-direction: alternate</t>
+  </si>
+  <si>
+    <t>animation-fill-mode: forwards</t>
+  </si>
+  <si>
+    <t>animation-fill-mode: backwards</t>
+  </si>
+  <si>
+    <t>animation-fill-mode: both</t>
+  </si>
+  <si>
+    <t>animation-timing-function: linear</t>
+  </si>
+  <si>
+    <t>animation-timing-function: ease</t>
+  </si>
+  <si>
+    <t>animation-timing-function: ease-in</t>
+  </si>
+  <si>
+    <t>animation-timing-function: ease_out</t>
+  </si>
+  <si>
+    <t>animation-timing-function: ease-in-out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5166,6 +5299,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF595959"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5287,7 +5439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5301,13 +5453,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5320,40 +5466,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5371,29 +5496,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5401,27 +5508,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5443,10 +5538,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5456,12 +5551,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5753,10 +5842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView topLeftCell="A200" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5781,42 +5870,42 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5828,386 +5917,377 @@
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-    </row>
     <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="62"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="43"/>
     </row>
     <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="54"/>
-    </row>
-    <row r="47" spans="1:2" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="37"/>
+    </row>
+    <row r="47" spans="1:2" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="6" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:2" s="5" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="5"/>
-    </row>
+    <row r="49" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="31"/>
     </row>
     <row r="52" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="46"/>
-      <c r="B53" s="49"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="32"/>
     </row>
     <row r="54" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="32"/>
     </row>
     <row r="60" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="49"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="32"/>
     </row>
     <row r="62" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="31"/>
     </row>
     <row r="65" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46"/>
-      <c r="B65" s="48"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="31"/>
     </row>
     <row r="66" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="46"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="32"/>
     </row>
     <row r="68" spans="1:2" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="49"/>
-    </row>
-    <row r="69" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-    </row>
+      <c r="A68" s="29"/>
+      <c r="B68" s="32"/>
+    </row>
+    <row r="69" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>67</v>
@@ -6217,7 +6297,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -6225,12 +6305,12 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
     </row>
     <row r="73" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
     </row>
     <row r="74" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -6241,7 +6321,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -6249,7 +6329,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -6257,7 +6337,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -6266,43 +6346,43 @@
     </row>
     <row r="78" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="46"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="32"/>
     </row>
     <row r="81" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="32" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="46"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="32"/>
     </row>
     <row r="83" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="50" t="s">
+      <c r="A83" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="46"/>
-      <c r="B84" s="49"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="32"/>
     </row>
     <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -6310,23 +6390,23 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="46"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="56" t="s">
+      <c r="A88" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="57"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="35"/>
     </row>
     <row r="90" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6338,60 +6418,60 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="46"/>
-      <c r="B93" s="49"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="32"/>
     </row>
     <row r="94" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="50" t="s">
+      <c r="A94" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="46"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="32"/>
     </row>
     <row r="96" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="46"/>
-      <c r="B97" s="49"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="32"/>
     </row>
     <row r="98" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="46"/>
-      <c r="B99" s="49"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="32"/>
     </row>
     <row r="100" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
     </row>
     <row r="101" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
     </row>
     <row r="102" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -6418,7 +6498,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -6427,33 +6507,30 @@
     </row>
     <row r="106" spans="1:2" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="29"/>
-      <c r="B110" s="30"/>
-    </row>
+    <row r="110" spans="1:2" ht="70.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>135</v>
@@ -6480,61 +6557,61 @@
     </row>
     <row r="114" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="46" t="s">
+      <c r="A118" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="46"/>
-      <c r="B119" s="48"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="31"/>
     </row>
     <row r="120" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="46"/>
-      <c r="B120" s="48"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="31"/>
     </row>
     <row r="121" spans="1:2" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="48" t="s">
+      <c r="B122" s="31" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="46"/>
-      <c r="B123" s="49"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="32"/>
     </row>
     <row r="124" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="46"/>
-      <c r="B124" s="49"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="32"/>
     </row>
     <row r="125" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -6545,7 +6622,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -6553,20 +6630,20 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="60" t="s">
+      <c r="A127" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B127" s="48" t="s">
+      <c r="B127" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="60"/>
-      <c r="B128" s="49"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="32"/>
     </row>
     <row r="129" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -6577,7 +6654,7 @@
       <c r="A131" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B131" s="48" t="s">
+      <c r="B131" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6585,412 +6662,420 @@
       <c r="A132" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B132" s="49"/>
+      <c r="B132" s="32"/>
     </row>
     <row r="133" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B133" s="49"/>
+      <c r="B133" s="32"/>
     </row>
     <row r="134" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="29"/>
+      <c r="B136" s="31"/>
+    </row>
+    <row r="137" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="29"/>
+      <c r="B137" s="31"/>
+    </row>
+    <row r="138" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="29"/>
+      <c r="B138" s="31"/>
+    </row>
+    <row r="139" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="31"/>
+    </row>
+    <row r="140" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="29" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="46"/>
-      <c r="B136" s="48"/>
-    </row>
-    <row r="137" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="46"/>
-      <c r="B137" s="48"/>
-    </row>
-    <row r="138" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="46"/>
-      <c r="B138" s="48"/>
-    </row>
-    <row r="139" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="48"/>
-    </row>
-    <row r="140" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="46" t="s">
+      <c r="B140" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B140" s="48" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="141" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="46"/>
-      <c r="B141" s="48"/>
+      <c r="A141" s="29"/>
+      <c r="B141" s="31"/>
     </row>
     <row r="142" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B143" s="4" t="s">
+    </row>
+    <row r="144" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
+    <row r="145" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="32" t="s">
+      <c r="B147" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B149" s="4" t="s">
+    <row r="150" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="34" t="s">
+    <row r="153" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="22" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B153" s="38"/>
+      <c r="B153" s="23"/>
     </row>
     <row r="154" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B154" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="22" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B157" s="38"/>
+      <c r="B157" s="23"/>
     </row>
     <row r="158" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="35" t="s">
+      <c r="A161" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="B161" s="36" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="163" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B164" s="39" t="s">
-        <v>190</v>
+        <v>199</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B166" s="39" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="169" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B171" s="39" t="s">
-        <v>196</v>
+        <v>204</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="173" spans="1:2" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="B174" s="39" t="s">
-        <v>199</v>
+      <c r="A174" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="177" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="180" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="39" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="183" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B183" s="2"/>
     </row>
     <row r="184" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B185" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B185" s="4" t="s">
+    <row r="186" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B186" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="42" t="s">
+    <row r="187" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B186" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="40" t="s">
+      <c r="B187" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B191" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B191" s="41" t="s">
+    </row>
+    <row r="192" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="40" t="s">
+      <c r="B192" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="B192" s="41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="194" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B194" s="2"/>
     </row>
     <row r="195" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B197" s="4" t="s">
+    </row>
+    <row r="198" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="40" t="s">
+      <c r="B198" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="203" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B204" s="20" t="s">
         <v>240</v>
-      </c>
-      <c r="B203" s="2"/>
-    </row>
-    <row r="204" spans="1:2" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B204" s="44" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7049,4 +7134,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3EAE74-FDA4-4E95-B0C7-842218C1D71F}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="67" style="26" customWidth="1"/>
+    <col min="2" max="2" width="89.109375" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CED502C-A6EA-46E6-811A-DA3AEFC7E6A5}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="85.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="80.33203125" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DA6E4A-468E-4155-96E6-77406811DF9B}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="79.44140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>